--- a/doc/milestone2le/measurements_increase_load/measurements.xlsx
+++ b/doc/milestone2le/measurements_increase_load/measurements.xlsx
@@ -2197,7 +2197,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="301"/>
                 <c:pt idx="0">
-                  <c:v>39.038101186758297</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>39.038101186758297</c:v>
@@ -5280,16 +5280,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>161927</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5310,16 +5310,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>276226</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5659,7 +5659,7 @@
   <dimension ref="A1:O511"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y22"/>
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5729,7 +5729,7 @@
         <v>-1</v>
       </c>
       <c r="N2">
-        <v>39.038101186758297</v>
+        <v>-1</v>
       </c>
       <c r="O2">
         <v>15.6159999999999</v>

--- a/doc/milestone2le/measurements_increase_load/measurements.xlsx
+++ b/doc/milestone2le/measurements_increase_load/measurements.xlsx
@@ -307,7 +307,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Throughput</a:t>
+              <a:t>Mean Value Analysis - Throughput</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3233,6 +3233,12 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Mean Value Analysis - </a:t>
+            </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
               <a:t>Response Time</a:t>
@@ -5659,7 +5665,7 @@
   <dimension ref="A1:O511"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y20" sqref="Y20"/>
+      <selection activeCell="Y28" sqref="Y28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
